--- a/2013日程表.xlsx
+++ b/2013日程表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,12 +51,24 @@
     <t>荷包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>搬家，中午太极发出邮件，给出现有的深化设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵达北京报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +104,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -141,7 +161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -174,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -517,7 +540,9 @@
         <v>星期四</v>
       </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -578,7 +603,9 @@
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -612,7 +639,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="20.25">
+    <row r="9" spans="1:7" ht="40.5">
       <c r="A9" s="4">
         <v>41270</v>
       </c>
@@ -620,7 +647,9 @@
         <f t="shared" si="0"/>
         <v>星期四</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
